--- a/qa/02.文档分析/技能逻辑/技能逻辑-文档分析-hzg.xlsx
+++ b/qa/02.文档分析/技能逻辑/技能逻辑-文档分析-hzg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37780" windowHeight="19540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37780" windowHeight="19540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="普通技能逻辑" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="506">
   <si>
     <t>怪物大招逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1993,6 +1993,66 @@
   </si>
   <si>
     <t>点击大招按钮，不是点击怪物了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果手指滑动不离开，来回划，算几次，知道手指离开算一次？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及？则？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了限定次数操作后，未达到倒计时，自动退出还是点关闭退出？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并及时？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight的位置跟随瞄准镜移动？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点一旦被照妖镜发现，就永久可见，不能算是瞄准镜内可看到的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速键与物理大招不同？Why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画法阵结束后自动退出么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有倒计时么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与悦动达人方式的表现上区别不够明显，不利于玩家区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉这个阶段，没什么用，容易打乱战斗序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击技能图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有地方提到要等啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前边没有说达到次数就退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前边没说不屏蔽加速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2185,7 +2245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2352,6 +2412,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3805,8 +3868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="944656" y="375957"/>
-          <a:ext cx="8406653" cy="9126631"/>
+          <a:off x="935433" y="399427"/>
+          <a:ext cx="8295983" cy="9760308"/>
           <a:chOff x="944656" y="375957"/>
           <a:chExt cx="8406653" cy="9126631"/>
         </a:xfrm>
@@ -12691,8 +12754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A49" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -12901,6 +12964,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="55" t="s">
+        <v>491</v>
+      </c>
       <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
@@ -12916,132 +12982,159 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="55" t="s">
+        <v>492</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="55" t="s">
+        <v>493</v>
+      </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F34" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="55" t="s">
+        <v>494</v>
+      </c>
       <c r="E36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F40" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F41" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="55" t="s">
+        <v>496</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F44" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F45" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="55" t="s">
+        <v>495</v>
+      </c>
       <c r="F46" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F47" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F48" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="4:6" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="55" t="s">
+        <v>497</v>
+      </c>
       <c r="D58" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E59" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F60" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="55" t="s">
+        <v>498</v>
+      </c>
       <c r="F61" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="55" t="s">
+        <v>499</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F65" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F66" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F67" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A69" s="55" t="s">
+        <v>500</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F70" s="3" t="s">
         <v>19</v>
       </c>
@@ -13049,47 +13142,50 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F71" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F72" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D76" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D77" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D78" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C80" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="55" t="s">
+        <v>501</v>
+      </c>
       <c r="D81" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E82" s="3" t="s">
         <v>38</v>
       </c>
@@ -13097,7 +13193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E83" s="3" t="s">
         <v>40</v>
       </c>
@@ -13105,7 +13201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E86" s="3" t="s">
         <v>41</v>
       </c>
@@ -13113,27 +13209,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D90" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E91" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E92" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E93" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C95" s="2"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
@@ -13149,25 +13245,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D15:I47"/>
+  <dimension ref="A11:O52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="113" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="15" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="9:13" x14ac:dyDescent="0.15">
+      <c r="M11" s="56" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I15" s="4"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="56" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="O41" s="56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="56" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
